--- a/analysis/video_list.xlsx
+++ b/analysis/video_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/nzm0095_auburn_edu/Documents/paper_and_projects/2021/GlyptoTandemAnalysis/analysis/data_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobua\OneDrive_Auburn\paper_and_projects\old_project_tobe_published\GlyptoTandemAnalysis\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="11_F25DC773A252ABDACC10488AC9DA75CC5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88B2CE2D-B77F-4BCB-9A26-E045D7D12348}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A31273-C2DB-4D8A-9E64-6691E494A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,16 +671,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>51</v>
       </c>
@@ -695,7 +691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -741,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -764,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -787,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -810,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -833,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -856,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -879,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -902,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -925,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -948,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -971,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -994,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2024,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2046,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2145,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2191,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>104</v>
       </c>
@@ -2441,47 +2437,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D78">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D79">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D81">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D82">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D83">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D84">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C85">
         <v>357</v>
       </c>
@@ -2489,22 +2485,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D88">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
         <v>103</v>
       </c>
@@ -2512,82 +2508,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D91">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D92">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D94">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D95">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D96">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D97">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D98">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D99">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D100">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D101">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D102">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D103">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D104">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>105</v>
       </c>
@@ -2598,87 +2594,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D108">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D110">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D111">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D112">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115">
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122">
         <v>18</v>
       </c>

--- a/analysis/video_list.xlsx
+++ b/analysis/video_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobua\OneDrive_Auburn\paper_and_projects\old_project_tobe_published\GlyptoTandemAnalysis\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/nzm0095_auburn_edu/Documents/paper_and_projects/old_project_tobe_published/GlyptoTandemAnalysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A31273-C2DB-4D8A-9E64-6691E494A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{69A31273-C2DB-4D8A-9E64-6691E494A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41E4720A-BA6F-4036-B7F9-F21F3D425725}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="105">
   <si>
     <t>Glyptotermes</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t>JP2106</t>
-  </si>
-  <si>
-    <t>Gly-sat-327-02</t>
-  </si>
-  <si>
-    <t>Gly-sat-327-03</t>
   </si>
   <si>
     <t>Gly-sat-340-1</t>
@@ -669,18 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>51</v>
       </c>
@@ -691,7 +686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -737,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -760,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -783,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -806,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -829,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -852,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -875,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -898,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -921,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -944,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -967,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -990,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1775,10 +1770,10 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>69</v>
@@ -1790,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1798,13 +1793,13 @@
         <v>57</v>
       </c>
       <c r="C49">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1813,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1824,10 +1819,10 @@
         <v>340</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1836,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1842,7 @@
         <v>340</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
         <v>74</v>
@@ -1859,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1870,7 +1865,7 @@
         <v>340</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
         <v>75</v>
@@ -1882,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>340</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
         <v>76</v>
@@ -1905,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1911,7 @@
         <v>340</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
         <v>77</v>
@@ -1928,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1934,7 @@
         <v>340</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
         <v>78</v>
@@ -1951,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1961,8 +1956,8 @@
       <c r="C56">
         <v>340</v>
       </c>
-      <c r="D56">
-        <v>7</v>
+      <c r="D56" t="s">
+        <v>58</v>
       </c>
       <c r="E56" t="s">
         <v>79</v>
@@ -1974,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1984,20 +1979,23 @@
       <c r="C57">
         <v>340</v>
       </c>
-      <c r="D57">
-        <v>8</v>
+      <c r="D57" t="s">
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>80</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -2008,19 +2006,22 @@
         <v>340</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
         <v>81</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2031,22 +2032,19 @@
         <v>340</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
         <v>82</v>
       </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2057,22 +2055,19 @@
         <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E60" t="s">
         <v>83</v>
       </c>
-      <c r="F60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2078,7 @@
         <v>340</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
         <v>84</v>
@@ -2095,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2106,7 +2101,7 @@
         <v>340</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
         <v>85</v>
@@ -2115,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>340</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
         <v>86</v>
@@ -2141,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2147,7 @@
         <v>340</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s">
         <v>87</v>
@@ -2164,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2170,7 @@
         <v>340</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
         <v>88</v>
@@ -2187,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2195,13 +2190,13 @@
         <v>57</v>
       </c>
       <c r="C66">
-        <v>340</v>
-      </c>
-      <c r="D66" t="s">
-        <v>66</v>
+        <v>347</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2210,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2218,13 +2213,13 @@
         <v>57</v>
       </c>
       <c r="C67">
-        <v>340</v>
-      </c>
-      <c r="D67" t="s">
-        <v>67</v>
+        <v>347</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2233,21 +2228,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C68">
-        <v>347</v>
+      <c r="C68" t="s">
+        <v>68</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2256,30 +2251,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
         <v>57</v>
       </c>
-      <c r="C69">
-        <v>347</v>
+      <c r="C69" t="s">
+        <v>68</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="F69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2290,10 +2288,10 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2302,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2313,22 +2311,22 @@
         <v>68</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
         <v>92</v>
       </c>
       <c r="F71" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" t="s">
         <v>99</v>
       </c>
-      <c r="G71" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2339,7 +2337,7 @@
         <v>68</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
         <v>93</v>
@@ -2351,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2362,320 +2360,676 @@
         <v>68</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
         <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>356</v>
       </c>
       <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>356</v>
       </c>
       <c r="D75">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>104</v>
       </c>
       <c r="C76">
         <v>356</v>
       </c>
       <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>356</v>
+      </c>
       <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78">
+        <v>356</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79">
+        <v>356</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80">
+        <v>356</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81">
+        <v>356</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82">
+        <v>356</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83">
+        <v>357</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84">
+        <v>357</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
       <c r="C85">
         <v>357</v>
       </c>
       <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86">
+        <v>357</v>
+      </c>
       <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D87">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D88">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D90">
+      <c r="C103" t="s">
+        <v>104</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D91">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D92">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+      <c r="D106">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D93">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D94">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D95">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D96">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D97">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D98">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D99">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D113">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D100">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D101">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D102">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D103">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D104">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" t="s">
+        <v>104</v>
+      </c>
+      <c r="D118">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D110">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D111">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D112">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D113">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D114">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D115">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D116">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D117">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>104</v>
+      </c>
       <c r="D119">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>104</v>
+      </c>
       <c r="D120">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D121">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D122">
         <v>18</v>
       </c>
     </row>
